--- a/Results/ResTest3.xlsx
+++ b/Results/ResTest3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="30">
   <si>
     <t xml:space="preserve">Test 3 </t>
   </si>
@@ -89,16 +89,42 @@
   <si>
     <t>Last-Queue</t>
   </si>
+  <si>
+    <t>SpeedUp</t>
+  </si>
+  <si>
+    <t>Data For Graph</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>w = 1000</t>
+  </si>
+  <si>
+    <t>w=6000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -123,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,8 +166,872 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="he-IL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>TAS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$10:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$10:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.62912087912087911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75490196078431371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93650793650793651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>BackOff</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$14:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.71343726800296958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9418886198547215</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.91881188118811885</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>CLH</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$14:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$18:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96941612604263205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68055555555555558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75050301810865194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>MCS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$22:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$22:$I$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.68435191403626594</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6653934300993124</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92629482071713143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="97901952"/>
+        <c:axId val="97985664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="97901952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97985664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="97985664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97901952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="he-IL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lock-Free</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$45,Sheet1!$G$51,Sheet1!$G$57)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81081081081081086</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1311111111111112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46444444444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS_Random-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$46,Sheet1!$G$52,Sheet1!$G$58)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.78828828828828834</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3911111111111112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.95333333333333337</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TAS_Last-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$47,Sheet1!$G$53,Sheet1!$G$59)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.87612612612612617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0911111111111111</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25555555555555554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Backoff_Random-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$49,Sheet1!$G$55,Sheet1!$G$61)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.89414414414414412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7822222222222224</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0466666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Backoff_Last-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$50,Sheet1!$G$56,Sheet1!$G$62)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.81306306306306309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6822222222222223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="98008448"/>
+        <c:axId val="98022528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="98008448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98022528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="98022528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98008448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="he-IL"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Lock-Free</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$63,Sheet1!$G$69,Sheet1!$G$75)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2948717948717947</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3164556962025316</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TAS_Random-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$64,Sheet1!$G$70,Sheet1!$G$76)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.9358974358974359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4358974358974361</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5822784810126587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>TAS_Last-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$65,Sheet1!$G$71,Sheet1!$G$77)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5316455696202533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Backoff_Random-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$67,Sheet1!$G$73,Sheet1!$G$79)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.96153846153846156</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0769230769230766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5316455696202533</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Backoff_Last-Queue</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$39:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet1!$G$68,Sheet1!$G$74,Sheet1!$G$80)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.98717948717948723</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.115384615384615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8734177215189876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="99040640"/>
+        <c:axId val="99046528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99040640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99046528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="99046528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99040640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="תרשים 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="תרשים 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="תרשים 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ערכת נושא Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -214,7 +1105,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -249,7 +1139,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,16 +1314,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -482,7 +1374,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -507,7 +1399,7 @@
         <v>5773.5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -532,7 +1424,7 @@
         <v>1184.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -557,7 +1449,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -573,8 +1465,16 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="15">
       <c r="B9">
         <v>25</v>
       </c>
@@ -587,8 +1487,21 @@
       <c r="E9">
         <v>1456</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f>E13/E9</f>
+        <v>0.62912087912087911</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="B10">
         <v>25</v>
       </c>
@@ -601,8 +1514,21 @@
       <c r="E10">
         <v>1347</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" ref="G10:G12" si="2">E14/E10</f>
+        <v>0.71343726800296958</v>
+      </c>
+      <c r="I10">
+        <v>0.62912087912087911</v>
+      </c>
+      <c r="J10">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="B11">
         <v>25</v>
       </c>
@@ -615,8 +1541,21 @@
       <c r="E11">
         <v>1079</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.96941612604263205</v>
+      </c>
+      <c r="I11">
+        <v>0.75490196078431371</v>
+      </c>
+      <c r="J11">
+        <v>200</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12">
         <v>25</v>
       </c>
@@ -629,8 +1568,21 @@
       <c r="E12">
         <v>1489</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.68435191403626594</v>
+      </c>
+      <c r="I12">
+        <v>0.93650793650793651</v>
+      </c>
+      <c r="J12">
+        <v>800</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="B13">
         <v>25</v>
       </c>
@@ -644,7 +1596,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14">
         <v>25</v>
       </c>
@@ -657,8 +1609,17 @@
       <c r="E14">
         <v>961</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>0.71343726800296958</v>
+      </c>
+      <c r="J14">
+        <v>25</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15">
         <v>25</v>
       </c>
@@ -671,8 +1632,17 @@
       <c r="E15">
         <v>1046</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>0.9418886198547215</v>
+      </c>
+      <c r="J15">
+        <v>200</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="B16">
         <v>25</v>
       </c>
@@ -685,8 +1655,17 @@
       <c r="E16">
         <v>1019</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>0.91881188118811885</v>
+      </c>
+      <c r="J16">
+        <v>800</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
       <c r="B17">
         <v>200</v>
       </c>
@@ -699,8 +1678,12 @@
       <c r="E17">
         <v>1326</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <f>E21/E17</f>
+        <v>0.75490196078431371</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18">
         <v>200</v>
       </c>
@@ -713,8 +1696,21 @@
       <c r="E18">
         <v>1239</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <f t="shared" ref="G18:G19" si="3">E22/E18</f>
+        <v>0.9418886198547215</v>
+      </c>
+      <c r="I18">
+        <v>0.96941612604263205</v>
+      </c>
+      <c r="J18">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
       <c r="B19">
         <v>200</v>
       </c>
@@ -727,8 +1723,21 @@
       <c r="E19">
         <v>1224</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="I19">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="J19">
+        <v>200</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20">
         <v>200</v>
       </c>
@@ -741,8 +1750,21 @@
       <c r="E20">
         <v>1309</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <f>E24/E20</f>
+        <v>0.6653934300993124</v>
+      </c>
+      <c r="I20">
+        <v>0.75050301810865194</v>
+      </c>
+      <c r="J20">
+        <v>800</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
       <c r="B21">
         <v>200</v>
       </c>
@@ -756,7 +1778,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11">
       <c r="B22">
         <v>200</v>
       </c>
@@ -769,8 +1791,17 @@
       <c r="E22">
         <v>1167</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>0.68435191403626594</v>
+      </c>
+      <c r="J22">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
       <c r="B23">
         <v>200</v>
       </c>
@@ -783,8 +1814,17 @@
       <c r="E23">
         <v>833</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>0.6653934300993124</v>
+      </c>
+      <c r="J23">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
       <c r="B24">
         <v>200</v>
       </c>
@@ -797,8 +1837,17 @@
       <c r="E24">
         <v>871</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>0.92629482071713143</v>
+      </c>
+      <c r="J24">
+        <v>800</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>800</v>
       </c>
@@ -811,8 +1860,12 @@
       <c r="E25">
         <v>504</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <f>E29/E25</f>
+        <v>0.93650793650793651</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
       <c r="B26">
         <v>800</v>
       </c>
@@ -825,8 +1878,12 @@
       <c r="E26">
         <v>505</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <f t="shared" ref="G26:G27" si="4">E30/E26</f>
+        <v>0.91881188118811885</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
       <c r="B27">
         <v>800</v>
       </c>
@@ -839,8 +1896,12 @@
       <c r="E27">
         <v>497</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <f t="shared" si="4"/>
+        <v>0.75050301810865194</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
       <c r="B28">
         <v>800</v>
       </c>
@@ -853,8 +1914,12 @@
       <c r="E28">
         <v>502</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f>E32/E28</f>
+        <v>0.92629482071713143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
       <c r="B29">
         <v>800</v>
       </c>
@@ -868,7 +1933,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11">
       <c r="B30">
         <v>800</v>
       </c>
@@ -882,7 +1947,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11">
       <c r="B31">
         <v>800</v>
       </c>
@@ -896,7 +1961,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11">
       <c r="B32">
         <v>800</v>
       </c>
@@ -910,12 +1975,17 @@
         <v>465</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12">
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12">
       <c r="B38" t="s">
         <v>10</v>
       </c>
@@ -931,8 +2001,11 @@
       <c r="F38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -952,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -972,7 +2045,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>18</v>
       </c>
@@ -992,7 +2065,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -1012,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -1026,13 +2099,13 @@
         <v>19</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="F43">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>18</v>
       </c>
@@ -1052,7 +2125,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1071,8 +2144,15 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f>E45/I45</f>
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="I45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1091,8 +2171,15 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" ref="G46:G80" si="5">E46/I46</f>
+        <v>0.78828828828828834</v>
+      </c>
+      <c r="I46">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1111,8 +2198,15 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>0.87612612612612617</v>
+      </c>
+      <c r="I47">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1131,8 +2225,15 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>0.9144144144144144</v>
+      </c>
+      <c r="I48">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -1151,8 +2252,15 @@
       <c r="F49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>0.89414414414414412</v>
+      </c>
+      <c r="I49">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>20</v>
       </c>
@@ -1171,8 +2279,15 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>0.81306306306306309</v>
+      </c>
+      <c r="I50">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>20</v>
       </c>
@@ -1191,8 +2306,15 @@
       <c r="F51">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>3.1311111111111112</v>
+      </c>
+      <c r="I51">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>20</v>
       </c>
@@ -1211,8 +2333,15 @@
       <c r="F52">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>1.3911111111111112</v>
+      </c>
+      <c r="I52">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>20</v>
       </c>
@@ -1231,8 +2360,15 @@
       <c r="F53">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>1.0911111111111111</v>
+      </c>
+      <c r="I53">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>20</v>
       </c>
@@ -1251,8 +2387,18 @@
       <c r="F54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>3.2866666666666666</v>
+      </c>
+      <c r="I54">
+        <v>450</v>
+      </c>
+      <c r="L54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>20</v>
       </c>
@@ -1271,8 +2417,15 @@
       <c r="F55">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>2.7822222222222224</v>
+      </c>
+      <c r="I55">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1291,8 +2444,15 @@
       <c r="F56">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>2.6822222222222223</v>
+      </c>
+      <c r="I56">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1311,8 +2471,15 @@
       <c r="F57">
         <v>64</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>0.46444444444444444</v>
+      </c>
+      <c r="I57">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -1331,8 +2498,15 @@
       <c r="F58">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>0.95333333333333337</v>
+      </c>
+      <c r="I58">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -1351,8 +2525,15 @@
       <c r="F59">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>0.25555555555555554</v>
+      </c>
+      <c r="I59">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -1371,8 +2552,15 @@
       <c r="F60">
         <v>64</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>1.1133333333333333</v>
+      </c>
+      <c r="I60">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -1391,8 +2579,15 @@
       <c r="F61">
         <v>64</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>1.0466666666666666</v>
+      </c>
+      <c r="I61">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1411,8 +2606,15 @@
       <c r="F62">
         <v>64</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="I62">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -1431,8 +2633,15 @@
       <c r="F63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="I63">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -1451,8 +2660,15 @@
       <c r="F64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>0.9358974358974359</v>
+      </c>
+      <c r="I64">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>20</v>
       </c>
@@ -1471,8 +2687,15 @@
       <c r="F65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="I65">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -1491,8 +2714,15 @@
       <c r="F66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="I66">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>20</v>
       </c>
@@ -1511,8 +2741,15 @@
       <c r="F67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>0.96153846153846156</v>
+      </c>
+      <c r="I67">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -1531,8 +2768,15 @@
       <c r="F68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>0.98717948717948723</v>
+      </c>
+      <c r="I68">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1551,8 +2795,15 @@
       <c r="F69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69">
+        <f>E69/I69</f>
+        <v>4.2948717948717947</v>
+      </c>
+      <c r="I69">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -1571,8 +2822,15 @@
       <c r="F70">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>7.4358974358974361</v>
+      </c>
+      <c r="I70">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -1591,8 +2849,15 @@
       <c r="F71">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="I71">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -1611,8 +2876,15 @@
       <c r="F72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72">
+        <f t="shared" si="5"/>
+        <v>4.3076923076923075</v>
+      </c>
+      <c r="I72">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -1631,8 +2903,15 @@
       <c r="F73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73">
+        <f t="shared" si="5"/>
+        <v>7.0769230769230766</v>
+      </c>
+      <c r="I73">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -1651,8 +2930,15 @@
       <c r="F74">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74">
+        <f t="shared" si="5"/>
+        <v>5.115384615384615</v>
+      </c>
+      <c r="I74">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -1671,8 +2957,15 @@
       <c r="F75">
         <v>64</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75">
+        <f t="shared" si="5"/>
+        <v>5.3164556962025316</v>
+      </c>
+      <c r="I75">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -1691,8 +2984,15 @@
       <c r="F76">
         <v>64</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76">
+        <f t="shared" si="5"/>
+        <v>4.5822784810126587</v>
+      </c>
+      <c r="I76">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -1711,8 +3011,15 @@
       <c r="F77">
         <v>64</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77">
+        <f t="shared" si="5"/>
+        <v>2.5316455696202533</v>
+      </c>
+      <c r="I77">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -1731,8 +3038,15 @@
       <c r="F78">
         <v>64</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78">
+        <f t="shared" si="5"/>
+        <v>6.7974683544303796</v>
+      </c>
+      <c r="I78">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -1751,8 +3065,15 @@
       <c r="F79">
         <v>64</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79">
+        <f t="shared" si="5"/>
+        <v>4.5316455696202533</v>
+      </c>
+      <c r="I79">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -1771,31 +3092,40 @@
       <c r="F80">
         <v>64</v>
       </c>
+      <c r="G80">
+        <f t="shared" si="5"/>
+        <v>2.8734177215189876</v>
+      </c>
+      <c r="I80">
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
